--- a/OrdLine.xlsx
+++ b/OrdLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADA\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DC67B0-2256-499E-904A-7FFA4A57FD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A877A9-079F-4AC6-A119-B48DC703949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B63E9B5F-100D-4167-9015-5CDA6AB00DD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{B63E9B5F-100D-4167-9015-5CDA6AB00DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>OrdNo</t>
   </si>
@@ -58,9 +58,6 @@
     <t>P0036566</t>
   </si>
   <si>
-    <t>O1233131</t>
-  </si>
-  <si>
     <t>O1241518</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>O3331222</t>
-  </si>
-  <si>
-    <t>O333222</t>
   </si>
   <si>
     <t>P3455443</t>
@@ -514,7 +508,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C49"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +548,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -565,10 +559,10 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -576,10 +570,10 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -587,10 +581,10 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -598,10 +592,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -609,10 +603,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -620,7 +614,7 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -631,7 +625,7 @@
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -642,10 +636,10 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -653,7 +647,7 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -664,10 +658,10 @@
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -675,10 +669,10 @@
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -686,7 +680,7 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -697,7 +691,7 @@
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -708,10 +702,10 @@
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -719,10 +713,10 @@
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -730,10 +724,10 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -741,10 +735,10 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -752,32 +746,32 @@
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -785,7 +779,7 @@
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -796,10 +790,10 @@
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -807,7 +801,7 @@
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -818,10 +812,10 @@
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -829,10 +823,10 @@
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -840,7 +834,7 @@
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -851,10 +845,10 @@
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -862,10 +856,10 @@
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -873,10 +867,10 @@
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -884,7 +878,7 @@
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -895,10 +889,10 @@
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -906,10 +900,10 @@
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -917,10 +911,10 @@
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -928,10 +922,10 @@
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -939,10 +933,10 @@
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -950,10 +944,10 @@
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -961,10 +955,10 @@
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -972,10 +966,10 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -983,7 +977,7 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -994,10 +988,10 @@
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -1005,10 +999,10 @@
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1016,7 +1010,7 @@
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -1027,10 +1021,10 @@
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1038,10 +1032,10 @@
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -1049,10 +1043,10 @@
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
